--- a/sepet.xlsx
+++ b/sepet.xlsx
@@ -415,7 +415,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B7" sqref="B7"/>
@@ -982,6 +982,98 @@
         <v>100</v>
       </c>
     </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
